--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="literature" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="452">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -514,6 +514,81 @@
     <t xml:space="preserve">Brazil’s conservation reform and the reduction of deforestation in Amazonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Projetos de colonização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A amazônia era um alvo para a colonização e estabelecimento de propriedades rurais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falhas nos projetos de colonização / ineficiencia no uso de terras apropriadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de estrutura levava ao abandono de terras apropriadas, e pela procura de novas terras em outros programas de colonização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande parte do desmatamento era causado para ser ocupado por produção pecuária, no preíodo antes das políticas publicos do PPCDAm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de posse de terras frágil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilita a apropriação ilegal de terras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construções de estradas clandestinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilita o acesso de “grileiros” a novas terras, dando inicio ao processo de apropriação ilegal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de infra-estrutura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presença de rodovias é fortemente associada com terras que foram desmatadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de monitoramento das florestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilita a aplicação da lei em forma de multas e embargos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de aplicação da lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimula a ocorrência da supressão ilegal devido a percepção de impunidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuação de intituições civis, dos militares, da polícia federal, de companhias privadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação e aplicação de politicas publicas mais severas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas públicas como a lista negra de municipios com grande desmatamento levaram a uma diminuição desses desmatamentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embargos econômicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativas como a Moratória da Soja, e o Pacto pela Madeira Legal e Sustentável. Dificuktaram a comercialização de produtos de origem de terras aonde ocorreram supressões ilegais. Porém, é discutido que essas medidas tiveram efeitos colaterais imprevistos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de alternativas economicas sustentáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão de áreas protegidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprovação de leis que flexibilizam a apropriação ilegal de terras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O programa Terra Legal sofreu alterações para que grandes propriedades estabelecidas em áreas ilegais fossem regularizadas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1017/S0376892900012236</t>
   </si>
   <si>
@@ -523,6 +598,24 @@
     <t xml:space="preserve">Land-use Trends in the Brazilian Amazon Region as Factors in Accelerating Deforestation</t>
   </si>
   <si>
+    <t xml:space="preserve">Projeto de colonização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áreas em que ocorreu a supressão da vegetação natural são ocupadas por agricultura annual, comumente seguida por estabelecimento da pastagem, que leva a valorização da terra. Áreas ocupadas por pequenos produtores tendem a ser substituidas por corporativas e grandes produtores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorização da terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produtores são motivados a expandir a pastagem na Amazônia por causa da valorização das terras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicação de leis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aplicação de leis acaba influênciando a forma e as lcalizações aonde as supressões ocorrem.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.landusepol.2019.104313</t>
   </si>
   <si>
@@ -532,6 +625,99 @@
     <t xml:space="preserve">Land governance as a precondition for decreasing deforestation in the Brazilian Amazon</t>
   </si>
   <si>
+    <t xml:space="preserve">Políticas públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas públicas que fortalecem o monitoramento, controle e ações de inspeção dificuktam a ocorrência de desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão da produção de soja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A expansão da soja e seu efeito no mercado local pode incentivar a ocorrência do desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politicas de migração e expansão de estruturas de transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desmatamento ocorre com maior frequência em áreas mais acessíveis a grandes centros populacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politicas de austeridade economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortes no orçamento de instituições fragilizou o combate ao desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disputas ideológicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fortalecimento de um movimento conservador que se coloca contra politicas ambientais e sociais causou num enfraquecimento da capacidade institucional de combater o desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios associados ao uso da terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os beneficios são associados a preços de produtos agricolas, preço da terra, preços de insumos, aumento no preço da madeira, redução dos gatos no meio rural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politicas publicas e disponibilidade de crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disponibilidade de créditos e incentivos fiscais levam a um aumento do desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acessibilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A construção de novas estradas e outros meios de acesso a áreas de fronteias florestais facilitam o desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciclos do PIB afeta] o desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crescimento populacional causa desmatamento,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de posse da terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tipo de posse, e o tipo de proprietário da terra, influenciam na ocorrência de desmatamento. Desmatamentos são mais comuns em assentamentos rurais, propriedades privadas e áreas sem informações sobre posse. O maior desmatamento em assentamentos rurais se dá pela falta de microcréditos e assistẽncia técnica, assim como dificuldade de monitoramento dessas áreas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradição histórica de expansão agrícola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O desmatamento ocorre através do processo de ocupação de áreas florestais com uma fragilidade de direitos legais de posse e proteção; extração de madeira; introdução de bovinos; e desenvolvimento de formas de agricultura modernas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especulação imobiliária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O fator mais importante sobre oprocesso de desmatamento é a expectativa de valorização da terra desmatada, sendo influênciada pela distância dessa terra em relação a áreas produtivas. A especulação das terras não é só sobre seu preço, mas também é associada ao uso e ocupação da terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulamentação de posses frágil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A inabilidade do estado de regular e monitorar a posse de terra facilita o processo de apropriação ilegal de terra, e consequentemente, no desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governança de terras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma governança de terras sólida é um pré-requisito para a diminuição do desmatamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas de governo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O governo do presidente Jair Bolsonaro praticou ações de encorajamento ao desmatamento, corte de verbas de agências de proteção ambiental e de pesquisas ambientais, e realizando investidas contra os direitos da população indígena. Essas ações de um governo que se coloca a favor do desmatamento, irá reforçar o aumento do próprio.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.landusepol.2018.01.005</t>
   </si>
   <si>
@@ -541,6 +727,18 @@
     <t xml:space="preserve">No man’s land in the Brazilian Amazon: Could undesignated public forests slow Amazon deforestation?</t>
   </si>
   <si>
+    <t xml:space="preserve">Alocação de terras não designadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A alocação de terras não designadas para conservação e uso social seria um processo importante para a diminuição do desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso sustentável de florestas protegidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A possibilidade de fortalecimento economico através do uso sustentável de florestas pode reduzir o desmatamento.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.gloenvcha.2014.06.011</t>
   </si>
   <si>
@@ -550,6 +748,123 @@
     <t xml:space="preserve">Spatially complex land change: The Indirect effect of Brazil's agricultural sector on land use in Amazonia</t>
   </si>
   <si>
+    <t xml:space="preserve">A expansão da agricultura tem efeitos indiretos no aumento do desmatamento. Isso ocorre pela realocação de insumos e capital economico e social, e pela valorização de terras pŕoximas a produções de soja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda por produtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterações na demanda, e consequentemente no retorno financeiro da produção agropecuária, irá impor um efeito indireto no processo de desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realocação de capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O setor de produção agropecuária mobiliza capital financeiro e social de centros produtivos para a periferia da fronteira agrícola. Esse processo também tem um efeito indireto no desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expansão da agricultura sobre pastagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A expansão da agricultura sobre pastagens causa uma redução de produção de carne, podendo aumentar o seu valor, e consequentemente levando a uma expansão compensatória de pastagens, que ocorrem em áreas desmatadas. Porém, os autores discutem que no Brazil o efeito da expansão de agricultura sobre pastagens pode ter um efeito muito pequeno no retorno financeiro da pecuária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorização de terras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A expansão de culturas como a soja leva ao aumento de capital financeiro e de expectativa de retorno financeiro nas regiões produtoras. Em consequência, existe uma valorização das terras ocupadas por culturas como a soja, mas também de terras em proximidade, mas ocupadas por coberturas alternativas, como pastagens e vegetação nativa. Com a valorização da produção agropecuária e das terras associadas a essas produções, há um incentivo para a realização de supressão de vegetação nativa. Ou seja, a expansão da agricultura impacta a tomada de decisões sobre uso da terra, tanto pelo valor de produção, quanto pela valorização de terras. Os autores discutem que apesar desse efeito ser observável em uma análise estatística, houve um declínio do mesmo após 2006.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O efeito de flutuação macroeconômicas sobre o valor da produção agropecuária pode ter efeitos no incentivo a supressão e ocupação de terras ocupadas por vegetação natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/1747423X.2018.1475516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantifying cultural values associated with deforestation in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores culturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influências exógenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudanças no mercado, migrações e mudanças ambientais são fatores que podem alterar a perpepção de valor cultural de um agente social, que consequentemente pode ter um efeito na tomada de decisão em relação ao desmatamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de desenvolvimento e progresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A percepção de que a pastagem é relacionada ao desenvolvimento e progresso, e que as pessoas envolvidas com essa produção são vistas de forma positiva, como trabalhadoras. Já a vegetação natural pode ser considerada como um desperdício de lucros, e um impedimento do desenvolvimento. Essas percepções de valor podem afetar a tomada de decisão sobre a supressão de uma vegetação natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de beleza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A percepção de beleza de uma vegetação natural como uma virtude, que pode afetar o processo de tomada de decisão sobre a supressão dessa vegetação natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietários de grandes fazendas de pecuária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequenos colonos residentes em assentamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupantes de reservas extrativistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os ocupantes de reservas extrativistas são geralmente associados a uma percepção mais positiva sobre florestas. Porém os autores observaram valores positivos em relação a agropecuária por parte desse grupo social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaqueiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apesar de não serem proprietários de terra, os vaqueiros participam ativamente na criação e manutenção de pastagens. Esse grupo social apresenta, em geral, uma perspectiva de valores sobre agropecuária de status, produtividade, riqueza, progresso, desenvolvimento, trabalho e beleza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Não Governamentais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Não Governamentais influenciam o processo de supressão de vegetação nativa  através de politicas rurais, extensão técnica, desenvolvimento rural e preservação ambiental. Esse grupo social tem uma perspectiva negativa de valores sobre a agropecuária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legisladores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legisladores influenciam o processo de supressão de vegetação nativa  através de politicas rurais, extensão técnica, desenvolvimento rural e preservação ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jstor.org/stable/40464854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vayda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthropological Perspectives on Tropical Deforestation? A Review Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incentivos de mercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade tecnologica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industria agropecuária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redução de direitos comunais de uso de florestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulação estatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A regulação estatal pode favorecer interesses economicos em detrimento a interesses locais, incentivando a ocorrência de supressão da vegetação natural.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.landusepol.2014.06.026</t>
   </si>
   <si>
@@ -566,6 +881,503 @@
   </si>
   <si>
     <t xml:space="preserve">Reframing agrarian citizenship: Land, life and power in Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.gloenvcha.2013.05.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does secure land tenure save forests? A meta-analysis of the relationship between land tenure and tropical deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.gloenvcha.2013.09.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasparri et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linkages between soybean and neotropical deforestation: Coupling and transient decoupling dynamics in a multi-decadal analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina; Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/1540-6237.00069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Changing Social Contexts of Deforestation in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1086/597794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Do People Transform Landscapes? A Sociological Perspective on Suburban Sprawl and Tropical Deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177/0731121420908900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deforestation in the Global South: Assessing Uneven Environmental Improvements 1993–2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1093/sf/78.1.412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehrhardt-Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Determinants of Deforestation in Developing Countries: A Cross-National Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177/0308275X13478224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoefle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond carbon colonialism: Frontier peasant livelihoods, spatial mobility and deforestation in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://search.informit.org/doi/10.3316/informit.270234000784127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researching illegal logging and deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0376892900037188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revisionist View of Tropical Deforestation and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jstor.org/stable/45293936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Military and the Environment in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/10455752.2021.1980817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souza et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violence and Illegal Deforestation: The Crimes of “Environmental Militias” in the Amazon Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1590/S0104-06182011000300006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prates et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os processos de desenvolvimento e desmatamento da Amazônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.lagesa.org/wp-content/uploads/documents/Rajao_Schmitt-et-al_Julgamentos-IBAMA_Dicotomia.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajão et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicotomia da impunidade do desmatamento ilegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.21680/2177-8396.2017v29n1ID9521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neto et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Debate Institucional Sobre Rodovias na Amazônia: O Caso da BR-319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.1016/j.trd.2023.103735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silva et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road network and deforestation of indigenous lands in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.1016/j.tfp.2020.100056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milien et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roads, deforestation and the mitigating effect of the Chico Mendes extractive reserve in the southwestern Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.1016/j.jeem.2010.04.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deng et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure cookers or pressure valves: Do roads lead to deforestation in China?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0129460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfaff et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected Areas’ Impacts on Brazilian Amazon Deforestation: Examining Conservation – Development Interactions to Inform Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área de proteção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distância de rodovias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distância de cidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distância de bordas de florestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualidade do solo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de vegetação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1073/pnas.0800437105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring the effectiveness of protected area networks in reducing deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3390/f11050539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wade et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Is Threatening Forests in Protected Areas? A Global Assessment of Deforestation in Protected Areas, 2001–2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/j.1365-2699.2009.02147.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaveau et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating whether protected areas reduce tropical deforestation in Sumatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.gecco.2019.e00591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuller et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, do no harm: A systematic review of deforestation spillovers from protected areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0143886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spracklen et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Global Analysis of Deforestation in Moist Tropical Forest Protected Areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.worlddev.2013.01.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governance, Location and Avoided Deforestation from Protected Areas: Greater Restrictions Can Have Lower Impact, Due to Differences in Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41467-022-33398-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacheco et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land tenure drives Brazil’s deforestation rates across socio-environmental contexts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41893-021-00815-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sze et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced deforestation and degradation in Indigenous Lands pan-tropically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1073/pnas.1917874117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baragwanath et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collective property rights reduce deforestation in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.gloenvcha.2023.102678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camino et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous Lands with secure land-tenure can reduce forest-loss in deforestation hotspots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina; Bolivia; Paraguai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/14623528.2021.1905758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urzedo et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Colonial Reproduction of Deforestation in the Brazilian Amazon: Violence Against Indigenous Peoples for Land Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10531-019-01867-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paiva et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deforestation in protect areas in the Amazon: a threat to biodiversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.3197/096734009X12532652872036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drummond et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian Federal Conservation Units: A Historical Overview of their Creation and of their Current Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1073/pnas.1214786110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nolte et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governance regime and location influence avoided deforestation success of protected areas in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1590/S1414-753X2006000100003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medeiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolução das tipologias e categorias de áreas protegidas no Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/j.1523-1739.2009.01201.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dudley et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Links between Protected Areas, Faiths, and Sacred Natural Sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/cobi.12298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downgrading, Downsizing, Degazettement, and Reclassification of Protected Areas in Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/cobi.12770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetas et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A systematic review of motivational values and conservation success in and around protected areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.4103/0972-4923.110940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Relationship Between Local Support and the Success of Protected Areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">República Dominicana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41467-023-36427-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moutinho et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untitled public forestlands threaten Amazon conservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégias de conservação e uso sustentável de áreas protegidas na região Amazônica: uma revisão sistemática </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição de população da Unidade de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribuição da população dentro e no entorno das Unidades de Conservação podem afetar o sucesso dos objetivos de preservação dessas áreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflitos sociais em Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de Unidades de Conservação pode gerar conflitos com comunidades que utilizavam a área antes de seu estabelecimento. A restrição de acesso a recursos naturais como pesca, agricultura, e extração de madeira, podem gerar descontentamento e conflitos.
+As Unidades de Conservação de Uso Sustentável são consideradas como alternativas para evitar possíveis conflitos, caso houvessem restrições à habitação dentro dessa área.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abertura de estradas oficiais ou clandestinas em Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A abertura de estradas permitem a expansão de atividades humanas e a ocupação irregular de terras para a exploração predatória de madeiras nobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilização de infratores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilização de infratores por meio de procedimentos de licenciamento, monitoramento e multas. Essas estratégias podem desincentivas a ocorrência de Supressão de Vegetação Natural.
+O rigor dessas penalidades podem alterar o seu sucesso para evitar atividades ilegais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acessibilidade de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fácil acessibilidade de algumas Unidades de Conservação pode facilitar a ocorrẽncia de atividades ilegais, como a supressão de vegetação natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda por recursos naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A grande demanda por recursos naturais exerce uma pressão que pode aumentar a ocorrência da supressão de vegetação natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpo de funcionários de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe uma dificuldade na contratação e manutenção de funcionários em Unidades de Conservação. O que pode levar a uma facilitação da ocorrência de atividades ilegais, como a Supressão de Vegetação Natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dificuldade de monitoramento de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A falta de monitoramento pode facilitar a ocorrência de atividades ilegais em Unidades de Conservação, como a Supressão de Vegetação Natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de mercado de recursos naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valorização de recursos naturais encontrados em Unidades de Conservação podem incentivar a ocorrência de atividades ilegais, como a Supressão de Vegetação Natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incentivos à práticas econômicas sustentáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O incentivo à praticas econômicas sustentáveis, como a plantação de espécies arbóreas de valor econômico, podem diminuir a pressão sobre florestas nativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação Ambiental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formação de uma consciência ambiental pode contribuir na conservação da natureza, e em consequência, desincentivar práticas como a Supressão de Vegetação Natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atividades ecoturísticas são uma alternativa para o desenvolvimento sustentável. Essas atividades podem diminuir a pressão sobre áreas naturais, e consequentemente, desincentivar a ação de Supressão de Vegetação Natural.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.2305/IUCN.CH.2018.PARKS-24-2TBT.en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchetan et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatio‐temporal analysis of illegal activities from ranger‐collected data in W National Park of Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.14393/SN-v31n1-2019-42482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território, ambiente e modos de vida: conflitos entre o agronegócio e a Comunidade Quilombola de Morro de São João, Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.biocon.2022.109473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alves-Pinto et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The role of different governance regimes in reducing native vegetation conversion and promoting regrowth in the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.landusepol.2021.105663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceição et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government policies endanger the indigenous peoples of the Brazilian Amazon</t>
   </si>
 </sst>
 </file>
@@ -575,12 +1387,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -599,6 +1410,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -606,6 +1423,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -652,25 +1470,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -796,87 +1630,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E89" activeCellId="0" sqref="E89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D185" activeCellId="0" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="48.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="51.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="60.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -886,23 +1724,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -912,23 +1750,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -938,23 +1776,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -964,49 +1802,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1016,1070 +1854,1070 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="F17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="3" t="n">
         <v>1990</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="F30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="F31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="F32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="F34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="3" t="n">
         <v>2002</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="F36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="F37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="F39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="F40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="F41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="F42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="0" t="s">
+      <c r="F43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="F44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="F45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="F46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="F47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="F48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="F49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="H49" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="0" t="s">
+      <c r="F50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="H50" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -2089,72 +2927,72 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -2164,23 +3002,23 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="3" t="n">
         <v>1985</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -2190,49 +3028,49 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G58" s="3" t="s">
@@ -2242,23 +3080,23 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -2268,23 +3106,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -2294,23 +3132,23 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -2320,23 +3158,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -2346,72 +3184,72 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="3" t="n">
         <v>2006</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -2421,23 +3259,23 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -2447,23 +3285,23 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -2473,23 +3311,23 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -2499,429 +3337,3111 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="0" t="s">
+      <c r="F69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="H69" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="0" t="s">
+      <c r="F70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F71" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="0" t="s">
+      <c r="F71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="H71" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F72" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="0" t="s">
+      <c r="F72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F73" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" s="0" t="s">
+      <c r="F73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" s="0" t="s">
+      <c r="F74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="H74" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F75" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="0" t="s">
+      <c r="F75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="H75" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F76" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="0" t="s">
+      <c r="F76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="H76" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="1" t="n">
+      <c r="E77" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F77" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="0" t="s">
+      <c r="F77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F78" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="0" t="s">
+      <c r="F78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="H78" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F79" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" s="0" t="s">
+      <c r="F79" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E80" s="1" t="n">
+      <c r="E80" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="F80" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="F80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="0" t="n">
+      <c r="B94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="F94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" s="0" t="n">
+      <c r="B97" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="F97" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="E83" s="0" t="n">
+      <c r="B113" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="F83" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="F113" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="0" t="n">
+      <c r="B115" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="F84" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="F115" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="0" t="n">
+      <c r="B121" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E137" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="F85" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="0" t="n">
+      <c r="F137" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E138" s="2" t="n">
         <v>2009</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="F138" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1993</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2988,6 +6508,81 @@
     <hyperlink ref="B78" r:id="rId61" display="https://doi.org/10.1016/j.jenvman.2021.113020"/>
     <hyperlink ref="B79" r:id="rId62" display="https://doi.org/10.1016/j.jenvman.2021.113020"/>
     <hyperlink ref="B80" r:id="rId63" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B81" r:id="rId64" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B82" r:id="rId65" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B83" r:id="rId66" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B84" r:id="rId67" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B85" r:id="rId68" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B86" r:id="rId69" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B87" r:id="rId70" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B88" r:id="rId71" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B89" r:id="rId72" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B90" r:id="rId73" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B91" r:id="rId74" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B92" r:id="rId75" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B93" r:id="rId76" display="https://doi.org/10.1016/j.landusepol.2020.105072"/>
+    <hyperlink ref="B121" r:id="rId77" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B122" r:id="rId78" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B123" r:id="rId79" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B124" r:id="rId80" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B125" r:id="rId81" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B126" r:id="rId82" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B127" r:id="rId83" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B128" r:id="rId84" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B129" r:id="rId85" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B130" r:id="rId86" display="https://doi.org/10.1080/1747423X.2018.1475516"/>
+    <hyperlink ref="B131" r:id="rId87" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B132" r:id="rId88" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B133" r:id="rId89" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B134" r:id="rId90" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B135" r:id="rId91" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B136" r:id="rId92" display="https://www.jstor.org/stable/40464854"/>
+    <hyperlink ref="B141" r:id="rId93" display="https://doi.org/10.1111/1540-6237.00069"/>
+    <hyperlink ref="B142" r:id="rId94" display="https://doi.org/10.1086/597794"/>
+    <hyperlink ref="B143" r:id="rId95" display="https://doi.org/10.1177/0731121420908900"/>
+    <hyperlink ref="B144" r:id="rId96" display="https://doi.org/10.1093/sf/78.1.412"/>
+    <hyperlink ref="B146" r:id="rId97" display="https://search.informit.org/doi/10.3316/informit.270234000784127"/>
+    <hyperlink ref="B148" r:id="rId98" display="https://www.jstor.org/stable/45293936"/>
+    <hyperlink ref="B151" r:id="rId99" display="http://www.lagesa.org/wp-content/uploads/documents/Rajao_Schmitt-et-al_Julgamentos-IBAMA_Dicotomia.pdf"/>
+    <hyperlink ref="B153" r:id="rId100" display="http://dx.doi.org/10.1016/j.trd.2023.103735"/>
+    <hyperlink ref="B154" r:id="rId101" display="http://dx.doi.org/10.1016/j.tfp.2020.100056"/>
+    <hyperlink ref="B155" r:id="rId102" display="http://dx.doi.org/10.1016/j.jeem.2010.04.005"/>
+    <hyperlink ref="B156" r:id="rId103" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B157" r:id="rId104" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B158" r:id="rId105" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B159" r:id="rId106" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B160" r:id="rId107" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B161" r:id="rId108" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B162" r:id="rId109" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B163" r:id="rId110" display="https://doi.org/10.1371/journal.pone.0129460"/>
+    <hyperlink ref="B164" r:id="rId111" display="https://doi.org/10.1073/pnas.0800437105"/>
+    <hyperlink ref="B170" r:id="rId112" display="https://doi.org/10.1038/s41467-022-33398-3"/>
+    <hyperlink ref="B171" r:id="rId113" display="https://doi.org/10.1038/s41893-021-00815-2"/>
+    <hyperlink ref="B172" r:id="rId114" display="https://doi.org/10.1073/pnas.1917874117"/>
+    <hyperlink ref="B174" r:id="rId115" display="https://doi.org/10.1080/14623528.2021.1905758"/>
+    <hyperlink ref="B175" r:id="rId116" display="https://doi.org/10.1007/s10531-019-01867-9"/>
+    <hyperlink ref="B176" r:id="rId117" display="http://dx.doi.org/10.3197/096734009X12532652872036"/>
+    <hyperlink ref="B177" r:id="rId118" display="https://doi.org/10.1073/pnas.1214786110"/>
+    <hyperlink ref="B180" r:id="rId119" display="https://doi.org/10.1111/cobi.12298"/>
+    <hyperlink ref="B181" r:id="rId120" display="https://doi.org/10.1111/cobi.12770"/>
+    <hyperlink ref="B182" r:id="rId121" display="http://dx.doi.org/10.4103/0972-4923.110940"/>
+    <hyperlink ref="B183" r:id="rId122" display="https://doi.org/10.1038/s41467-023-36427-x"/>
+    <hyperlink ref="B184" r:id="rId123" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B185" r:id="rId124" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B186" r:id="rId125" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B187" r:id="rId126" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B188" r:id="rId127" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B189" r:id="rId128" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B190" r:id="rId129" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B191" r:id="rId130" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B192" r:id="rId131" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B193" r:id="rId132" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B194" r:id="rId133" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B195" r:id="rId134" display="https://doi.org/10.20873/jbb.uft.cemaf.v12n1.17587"/>
+    <hyperlink ref="B196" r:id="rId135" display="http://dx.doi.org/10.2305/IUCN.CH.2018.PARKS-24-2TBT.en"/>
+    <hyperlink ref="B197" r:id="rId136" display="https://doi.org/10.14393/SN-v31n1-2019-42482"/>
+    <hyperlink ref="B198" r:id="rId137" display="https://doi.org/10.1016/j.biocon.2022.109473"/>
+    <hyperlink ref="B199" r:id="rId138" display="https://doi.org/10.1016/j.landusepol.2021.105663"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="473">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1378,6 +1378,69 @@
   </si>
   <si>
     <t xml:space="preserve">Government policies endanger the indigenous peoples of the Brazilian Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jstor.org/stable/26270245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiz-Mallén et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meanings, drivers, and motivations for community-based conservation in Latin America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil; México; Bolívia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/10549811.2021.2007490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maru et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous Sacred Forests as a Tool for Climate Change Mitigation: Lessons from Gedeo Community, Southern Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiópia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/08920753.2015.1030297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McLeod et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Conservation Needs Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0376892911000282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackenzie et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spatial patterns of illegal resource extraction in Kibale National Park, Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0030605312000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand and proximity: drivers of illegal forest resource extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/S0376892905001918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation outside of parks: attitudes of local people in Laikipia, Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenia</t>
   </si>
 </sst>
 </file>
@@ -1387,11 +1450,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1410,6 +1474,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1420,12 +1485,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1470,41 +1529,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1630,4712 +1673,4712 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D185" activeCellId="0" sqref="D185"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B205" activeCellId="0" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="48.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="51.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="60.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="51.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="60.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>2004</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>1990</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>1985</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>2006</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" s="5" t="s">
+      <c r="F73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="F74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="5" t="s">
+      <c r="F76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="F78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" s="5" t="s">
+      <c r="F79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="F81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="F82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="F84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="F85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="F86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="F87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" s="5" t="s">
+      <c r="F88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="5" t="s">
+      <c r="F89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G90" s="5" t="s">
+      <c r="F90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="5" t="s">
+      <c r="F91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="F92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" s="5" t="s">
+      <c r="F93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G95" s="5" t="s">
+      <c r="F95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="5" t="s">
+      <c r="F96" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" s="5" t="s">
+      <c r="F97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" s="5" t="s">
+      <c r="F98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" s="5" t="s">
+      <c r="F99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" s="5" t="s">
+      <c r="F100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="F101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="F102" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" s="5" t="s">
+      <c r="F103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" s="5" t="s">
+      <c r="F104" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" s="5" t="s">
+      <c r="F105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" s="5" t="s">
+      <c r="F106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" s="5" t="s">
+      <c r="F107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" s="5" t="s">
+      <c r="F108" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="F109" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G110" s="5" t="s">
+      <c r="F110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="5" t="s">
+      <c r="F111" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" s="5" t="s">
+      <c r="F112" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G113" s="5" t="s">
+      <c r="F113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" s="5" t="s">
+      <c r="F114" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G115" s="5" t="s">
+      <c r="F115" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G116" s="5" t="s">
+      <c r="F116" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="5" t="s">
+      <c r="F117" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" s="5" t="s">
+      <c r="F118" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G119" s="5" t="s">
+      <c r="F119" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G120" s="5" t="s">
+      <c r="F120" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G121" s="5" t="s">
+      <c r="F121" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G122" s="5" t="s">
+      <c r="F122" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G123" s="5" t="s">
+      <c r="F123" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G124" s="5" t="s">
+      <c r="F124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G125" s="5" t="s">
+      <c r="F125" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G126" s="5" t="s">
+      <c r="F126" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G127" s="5" t="s">
+      <c r="F127" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="F129" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G130" s="5" t="s">
+      <c r="F130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H136" s="5" t="s">
+      <c r="H136" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="E148" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="E154" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E156" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G156" s="5" t="s">
+      <c r="F156" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E157" s="2" t="n">
+      <c r="E157" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G157" s="5" t="s">
+      <c r="F157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E158" s="2" t="n">
+      <c r="E158" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G158" s="5" t="s">
+      <c r="F158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E159" s="2" t="n">
+      <c r="E159" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G159" s="5" t="s">
+      <c r="F159" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E160" s="2" t="n">
+      <c r="E160" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G160" s="5" t="s">
+      <c r="F160" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E161" s="2" t="n">
+      <c r="E161" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G161" s="5" t="s">
+      <c r="F161" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E162" s="2" t="n">
+      <c r="E162" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G162" s="5" t="s">
+      <c r="F162" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E163" s="2" t="n">
+      <c r="E163" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G163" s="5" t="s">
+      <c r="F163" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E164" s="2" t="n">
+      <c r="E164" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E165" s="2" t="n">
+      <c r="E165" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B166" s="5" t="s">
+      <c r="A166" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E166" s="2" t="n">
+      <c r="E166" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E167" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E168" s="2" t="n">
+      <c r="E168" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E169" s="2" t="n">
+      <c r="E169" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>371</v>
       </c>
       <c r="E170" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F170" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E171" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E172" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F172" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E173" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E174" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F174" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>387</v>
       </c>
       <c r="E175" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F175" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E176" s="2" t="n">
+      <c r="E176" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E177" s="2" t="n">
+      <c r="E177" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E178" s="2" t="n">
+      <c r="E178" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E179" s="2" t="n">
+      <c r="E179" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E180" s="2" t="n">
+      <c r="E180" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E181" s="2" t="n">
+      <c r="E181" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="F181" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E182" s="2" t="n">
+      <c r="E182" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F182" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E183" s="2" t="n">
+      <c r="E183" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="F183" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E184" s="2" t="n">
+      <c r="E184" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G184" s="5" t="s">
+      <c r="F184" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="H184" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E185" s="2" t="n">
+      <c r="E185" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G185" s="5" t="s">
+      <c r="F185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="H185" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E186" s="2" t="n">
+      <c r="E186" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G186" s="5" t="s">
+      <c r="F186" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="H186" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E187" s="2" t="n">
+      <c r="E187" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G187" s="5" t="s">
+      <c r="F187" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="H187" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E188" s="2" t="n">
+      <c r="E188" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G188" s="5" t="s">
+      <c r="F188" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="H188" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E189" s="2" t="n">
+      <c r="E189" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G189" s="5" t="s">
+      <c r="F189" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H189" s="5" t="s">
+      <c r="H189" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E190" s="2" t="n">
+      <c r="E190" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G190" s="5" t="s">
+      <c r="F190" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H190" s="5" t="s">
+      <c r="H190" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E191" s="2" t="n">
+      <c r="E191" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G191" s="5" t="s">
+      <c r="F191" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H191" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E192" s="2" t="n">
+      <c r="E192" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G192" s="5" t="s">
+      <c r="F192" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="H192" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E193" s="2" t="n">
+      <c r="E193" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G193" s="5" t="s">
+      <c r="F193" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="H193" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E194" s="2" t="n">
+      <c r="E194" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G194" s="5" t="s">
+      <c r="F194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E195" s="2" t="n">
+      <c r="E195" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G195" s="5" t="s">
+      <c r="F195" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H195" s="5" t="s">
+      <c r="H195" s="2" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6343,19 +6386,19 @@
       <c r="A196" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="2" t="s">
         <v>442</v>
       </c>
       <c r="E196" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="F196" s="2" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6363,19 +6406,19 @@
       <c r="A197" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="2" t="s">
         <v>445</v>
       </c>
       <c r="E197" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="F197" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6383,19 +6426,19 @@
       <c r="A198" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="2" t="s">
         <v>448</v>
       </c>
       <c r="E198" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="F198" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6403,45 +6446,141 @@
       <c r="A199" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E199" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="F199" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
+      <c r="F199" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
+      <c r="A202" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E204" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>472</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6583,6 +6722,11 @@
     <hyperlink ref="B197" r:id="rId136" display="https://doi.org/10.14393/SN-v31n1-2019-42482"/>
     <hyperlink ref="B198" r:id="rId137" display="https://doi.org/10.1016/j.biocon.2022.109473"/>
     <hyperlink ref="B199" r:id="rId138" display="https://doi.org/10.1016/j.landusepol.2021.105663"/>
+    <hyperlink ref="B201" r:id="rId139" display="https://doi.org/10.1080/10549811.2021.2007490"/>
+    <hyperlink ref="B202" r:id="rId140" display="https://doi.org/10.1080/08920753.2015.1030297"/>
+    <hyperlink ref="B203" r:id="rId141" display="https://doi.org/10.1017/S0376892911000282"/>
+    <hyperlink ref="B204" r:id="rId142" display="https://doi.org/10.1017/S0030605312000026"/>
+    <hyperlink ref="B205" r:id="rId143" display="https://doi.org/10.1017/S0376892905001918"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="555">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1606,6 +1606,87 @@
   </si>
   <si>
     <t xml:space="preserve">O que mudou no perfil da atividade madeireira na amazônia nas últimas duas décadas (1998-2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dx.doi.org/10.1088/1748-9326/10/9/095014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgess et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War and deforestation in Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serra Leoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/eco.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacombe et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict, migration and land-cover changes in Indochina: a hydrological assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam; Cambodia; Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1300/J091v19n01_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McElwee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Say Illegal, I Say Legal: The Relationship Between ‘Illegal’ Logging and Land Tenure, Poverty, and Forest Use Rights in Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.foodpol.2020.101841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abman et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land rights, agricultural productivity, and deforestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.2307/1295667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecological Effects of Military Defoliation on the Forests of South Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1017/CBO9780511522321.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capítulo de livro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biswas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific assessment of the long-term environmental consequences of war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reporterbrasil.org.br/wp-content/uploads/2022/08/220801-Monitor-Maquinas-do-Desmatamento-PT.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Arma do Crime: Como equipamentos agrícolas e de construção civil estão contribuindo para o desmatamento ilegal da Amazônia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.brasildefato.com.br/2021/01/17/amazonia-em-destruicao-entenda-e-veja-como-acontecem-as-fases-do-desmatamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazônia em destruição: entenda e veja como acontecem as fases do desmatamento</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1782,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1730,8 +1811,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1861,10 +1946,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F200" activeCellId="0" sqref="F200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A231" activeCellId="0" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8005,6 +8090,190 @@
         <v>2019</v>
       </c>
       <c r="H223" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G224" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G225" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G226" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G227" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G228" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G229" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G230" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G231" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="H231" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8157,6 +8426,13 @@
     <hyperlink ref="B220" r:id="rId145" display="http://www.observatoriogeograficoamericalatina.org.mx/egal9/Geografiasocioeconomica/Geografiapolitica/02.pdf"/>
     <hyperlink ref="B221" r:id="rId146" display="https://periodicos.ufpa.br/index.php/pnaea/article/view/11940"/>
     <hyperlink ref="B223" r:id="rId147" display="https://www.imaflora.org/public/media/biblioteca/5df8d93dcbeae_Boletim1_Timberflow.pdf"/>
+    <hyperlink ref="B224" r:id="rId148" display="http://dx.doi.org/10.1088/1748-9326/10/9/095014"/>
+    <hyperlink ref="B225" r:id="rId149" display="https://doi.org/10.1002/eco.166"/>
+    <hyperlink ref="B226" r:id="rId150" display="https://doi.org/10.1300/J091v19n01_06"/>
+    <hyperlink ref="B227" r:id="rId151" display="https://doi.org/10.1016/j.foodpol.2020.101841"/>
+    <hyperlink ref="B228" r:id="rId152" display="https://doi.org/10.2307/1295667"/>
+    <hyperlink ref="B229" r:id="rId153" display="https://doi.org/10.1017/CBO9780511522321.017"/>
+    <hyperlink ref="B230" r:id="rId154" display="https://reporterbrasil.org.br/wp-content/uploads/2022/08/220801-Monitor-Maquinas-do-Desmatamento-PT.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -1948,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:J231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A231" activeCellId="0" sqref="A231"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4679,7 +4679,7 @@
         <v>193</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>43</v>
@@ -4709,7 +4709,7 @@
         <v>193</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>43</v>
@@ -4739,7 +4739,7 @@
         <v>193</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>2009</v>
+        <v>1983</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>43</v>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="558">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1687,6 +1687,15 @@
   </si>
   <si>
     <t xml:space="preserve">Amazônia em destruição: entenda e veja como acontecem as fases do desmatamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1177/25148486231187397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From chains to chainsaws: Modern slavery and deforestation in the Brazilian Amazon</t>
   </si>
 </sst>
 </file>
@@ -1946,10 +1955,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J232" activeCellId="0" sqref="J232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8235,7 +8244,7 @@
       <c r="A230" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>550</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -8274,6 +8283,29 @@
         <v>2021</v>
       </c>
       <c r="H231" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G232" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H232" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8433,6 +8465,7 @@
     <hyperlink ref="B228" r:id="rId152" display="https://doi.org/10.2307/1295667"/>
     <hyperlink ref="B229" r:id="rId153" display="https://doi.org/10.1017/CBO9780511522321.017"/>
     <hyperlink ref="B230" r:id="rId154" display="https://reporterbrasil.org.br/wp-content/uploads/2022/08/220801-Monitor-Maquinas-do-Desmatamento-PT.pdf"/>
+    <hyperlink ref="B232" r:id="rId155" display="https://doi.org/10.1177/25148486231187397"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="559">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">element</t>
   </si>
   <si>
     <t xml:space="preserve">object</t>
@@ -1705,7 +1708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1730,13 +1733,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1791,7 +1787,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1825,10 +1821,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1955,10 +1947,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J232" activeCellId="0" sqref="J232"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1968,9 +1960,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="60.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,35 +1997,38 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,29 +2036,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,29 +2066,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,29 +2096,29 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,29 +2126,29 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,29 +2156,29 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,29 +2186,29 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,26 +2216,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,26 +2243,26 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,26 +2270,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,26 +2297,26 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,29 +2324,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,29 +2354,29 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,29 +2384,29 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1997</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,29 +2414,29 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,29 +2444,29 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,29 +2474,29 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,54 +2504,54 @@
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,26 +2559,26 @@
         <v>4</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,26 +2586,26 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,29 +2613,29 @@
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,29 +2643,29 @@
         <v>4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,29 +2673,29 @@
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,26 +2703,26 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,26 +2730,26 @@
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,26 +2757,26 @@
         <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,29 +2784,29 @@
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>1990</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,29 +2814,29 @@
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,26 +2844,26 @@
         <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,29 +2871,29 @@
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="3" t="s">
         <v>73</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,29 +2901,29 @@
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,26 +2931,26 @@
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,29 +2958,29 @@
         <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>2002</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J35" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,29 +2988,29 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,26 +3018,26 @@
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,29 +3045,29 @@
         <v>6</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,26 +3075,26 @@
         <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,26 +3102,26 @@
         <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,26 +3129,26 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,26 +3156,26 @@
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,26 +3183,26 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,26 +3210,26 @@
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G44" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,26 +3237,26 @@
         <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G45" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,26 +3264,26 @@
         <v>6</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,26 +3291,26 @@
         <v>6</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,26 +3318,26 @@
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,29 +3345,29 @@
         <v>6</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J49" s="3" t="s">
         <v>96</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,29 +3375,29 @@
         <v>6</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G50" s="3" t="n">
         <v>2013</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,29 +3405,29 @@
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G51" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J51" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,29 +3435,29 @@
         <v>7</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G52" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J52" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,29 +3465,29 @@
         <v>7</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G53" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J53" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,26 +3495,26 @@
         <v>7</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,29 +3522,29 @@
         <v>7</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G55" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="3" t="s">
         <v>110</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,29 +3552,29 @@
         <v>7</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G56" s="3" t="n">
         <v>1985</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J56" s="3" t="s">
         <v>112</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,29 +3582,29 @@
         <v>8</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G57" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J57" s="3" t="s">
         <v>118</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,29 +3612,29 @@
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G58" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J58" s="3" t="s">
         <v>120</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,29 +3642,29 @@
         <v>8</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G59" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J59" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,29 +3672,29 @@
         <v>8</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G60" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,29 +3702,29 @@
         <v>8</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G61" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,29 +3732,29 @@
         <v>8</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G62" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J62" s="3" t="s">
         <v>127</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,26 +3762,26 @@
         <v>8</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G63" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3793,29 +3789,29 @@
         <v>9</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G64" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J64" s="3" t="s">
         <v>134</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,29 +3819,29 @@
         <v>9</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G65" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J65" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,29 +3849,29 @@
         <v>9</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G66" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J66" s="3" t="s">
         <v>138</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,29 +3879,29 @@
         <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G67" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J67" s="3" t="s">
         <v>140</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,29 +3909,29 @@
         <v>9</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G68" s="3" t="n">
         <v>2020</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J68" s="3" t="s">
         <v>142</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3943,29 +3939,29 @@
         <v>10</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J69" s="3" t="s">
         <v>147</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,26 +3969,26 @@
         <v>10</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G70" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,29 +3996,29 @@
         <v>10</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G71" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J71" s="3" t="s">
         <v>150</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,29 +4026,29 @@
         <v>10</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G72" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" s="3" t="s">
         <v>152</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,26 +4056,26 @@
         <v>10</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G73" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,29 +4083,29 @@
         <v>10</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G74" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J74" s="3" t="s">
         <v>155</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,29 +4113,29 @@
         <v>10</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G75" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J75" s="3" t="s">
         <v>157</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,29 +4143,29 @@
         <v>10</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G76" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J76" s="3" t="s">
         <v>159</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,29 +4173,29 @@
         <v>10</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G77" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K77" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,29 +4203,29 @@
         <v>10</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G78" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J78" s="3" t="s">
         <v>162</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,26 +4233,26 @@
         <v>10</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G79" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,59 +4260,59 @@
         <v>11</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J80" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K80" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J81" s="3" t="s">
         <v>169</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,29 +4320,29 @@
         <v>11</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G82" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J82" s="3" t="s">
         <v>171</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,29 +4350,29 @@
         <v>11</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G83" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J83" s="3" t="s">
         <v>173</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,29 +4380,29 @@
         <v>11</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G84" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J84" s="3" t="s">
         <v>175</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,29 +4410,29 @@
         <v>11</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G85" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J85" s="3" t="s">
         <v>177</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,29 +4440,29 @@
         <v>11</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G86" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J86" s="3" t="s">
         <v>179</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,86 +4470,86 @@
         <v>11</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G87" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J87" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K87" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G89" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J89" s="3" t="s">
         <v>184</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4561,29 +4557,29 @@
         <v>11</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J90" s="3" t="s">
         <v>186</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,26 +4587,26 @@
         <v>11</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G91" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,56 +4614,56 @@
         <v>11</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G92" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G93" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J93" s="3" t="s">
         <v>190</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,29 +4671,29 @@
         <v>12</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>1983</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J94" s="3" t="s">
         <v>195</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4705,29 +4701,29 @@
         <v>12</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>1983</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J95" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,29 +4731,29 @@
         <v>12</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>1983</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J96" s="3" t="s">
         <v>199</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,29 +4761,29 @@
         <v>13</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J97" s="3" t="s">
         <v>204</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,29 +4791,29 @@
         <v>13</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J98" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,29 +4821,29 @@
         <v>13</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J99" s="3" t="s">
         <v>208</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,29 +4851,29 @@
         <v>13</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J100" s="3" t="s">
         <v>210</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,29 +4881,29 @@
         <v>13</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J101" s="3" t="s">
         <v>212</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,29 +4911,29 @@
         <v>13</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J102" s="3" t="s">
         <v>214</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,29 +4941,29 @@
         <v>13</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J103" s="3" t="s">
         <v>216</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,29 +4971,29 @@
         <v>13</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J104" s="3" t="s">
         <v>218</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,29 +5001,29 @@
         <v>13</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J105" s="3" t="s">
         <v>220</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,29 +5031,29 @@
         <v>13</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>221</v>
+        <v>103</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,29 +5061,29 @@
         <v>13</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J107" s="3" t="s">
         <v>223</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,29 +5091,29 @@
         <v>13</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J108" s="3" t="s">
         <v>225</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,29 +5121,29 @@
         <v>13</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J109" s="3" t="s">
         <v>227</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,29 +5151,29 @@
         <v>13</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J110" s="3" t="s">
         <v>229</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,29 +5181,29 @@
         <v>13</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J111" s="3" t="s">
         <v>231</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,29 +5211,29 @@
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J112" s="3" t="s">
         <v>233</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,29 +5241,29 @@
         <v>14</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J113" s="3" t="s">
         <v>238</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,29 +5271,29 @@
         <v>14</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J114" s="3" t="s">
         <v>240</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,29 +5301,29 @@
         <v>15</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>244</v>
+        <v>105</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,29 +5331,29 @@
         <v>15</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J116" s="3" t="s">
         <v>246</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,29 +5361,29 @@
         <v>15</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J117" s="3" t="s">
         <v>248</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,29 +5391,29 @@
         <v>15</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J118" s="3" t="s">
         <v>250</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,29 +5421,29 @@
         <v>15</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J119" s="3" t="s">
         <v>252</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,29 +5451,29 @@
         <v>15</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,26 +5481,26 @@
         <v>16</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,29 +5508,29 @@
         <v>16</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J122" s="3" t="s">
         <v>259</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5542,29 +5538,29 @@
         <v>16</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J123" s="3" t="s">
         <v>261</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,29 +5568,29 @@
         <v>16</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J124" s="3" t="s">
         <v>263</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,53 +5598,53 @@
         <v>16</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,29 +5652,29 @@
         <v>16</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J127" s="3" t="s">
         <v>267</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,29 +5682,29 @@
         <v>16</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J128" s="3" t="s">
         <v>269</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,29 +5712,29 @@
         <v>16</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J129" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,29 +5742,29 @@
         <v>16</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J130" s="3" t="s">
         <v>273</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,26 +5772,26 @@
         <v>17</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,26 +5799,26 @@
         <v>17</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,26 +5826,26 @@
         <v>17</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,53 +5853,53 @@
         <v>17</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,29 +5907,29 @@
         <v>17</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J136" s="3" t="s">
         <v>282</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,23 +5937,23 @@
         <v>18</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,23 +5961,23 @@
         <v>19</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,23 +5985,23 @@
         <v>20</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,23 +6009,23 @@
         <v>21</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,23 +6033,23 @@
         <v>22</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6061,23 +6057,23 @@
         <v>23</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,23 +6081,23 @@
         <v>24</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,23 +6105,23 @@
         <v>25</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G144" s="1" t="n">
         <v>1998</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,23 +6129,23 @@
         <v>26</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,23 +6153,23 @@
         <v>27</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,23 +6177,23 @@
         <v>28</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>1993</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,23 +6201,23 @@
         <v>29</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>1993</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,23 +6225,23 @@
         <v>30</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,23 +6249,23 @@
         <v>31</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,23 +6273,23 @@
         <v>32</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,23 +6297,23 @@
         <v>33</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,23 +6321,23 @@
         <v>34</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G153" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,23 +6345,23 @@
         <v>35</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G154" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,23 +6369,23 @@
         <v>36</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,26 +6393,26 @@
         <v>37</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,26 +6420,26 @@
         <v>37</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,26 +6447,26 @@
         <v>37</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,26 +6474,26 @@
         <v>37</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,26 +6501,26 @@
         <v>37</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,26 +6528,26 @@
         <v>37</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,26 +6555,26 @@
         <v>37</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6586,26 +6582,26 @@
         <v>37</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,23 +6609,23 @@
         <v>38</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,23 +6633,23 @@
         <v>39</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,23 +6657,23 @@
         <v>40</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G166" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,23 +6681,23 @@
         <v>41</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,23 +6705,23 @@
         <v>42</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,23 +6729,23 @@
         <v>43</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G169" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,23 +6753,23 @@
         <v>44</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G170" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,23 +6777,23 @@
         <v>45</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G171" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,23 +6801,23 @@
         <v>46</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G172" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,23 +6825,23 @@
         <v>47</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G173" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6853,23 +6849,23 @@
         <v>48</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G174" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,23 +6873,23 @@
         <v>49</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G175" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,23 +6897,23 @@
         <v>50</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G176" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,23 +6921,23 @@
         <v>51</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G177" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,23 +6945,23 @@
         <v>52</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G178" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,23 +6969,23 @@
         <v>53</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G179" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,23 +6993,23 @@
         <v>54</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G180" s="1" t="n">
         <v>2014</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,23 +7017,23 @@
         <v>55</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G181" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,23 +7041,23 @@
         <v>56</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G182" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,23 +7065,23 @@
         <v>57</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G183" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,29 +7089,29 @@
         <v>58</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G184" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J184" s="3" t="s">
         <v>419</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,59 +7119,59 @@
         <v>58</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G185" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="J185" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K185" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G186" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J186" s="3" t="s">
         <v>423</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,29 +7179,29 @@
         <v>58</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G187" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J187" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,29 +7209,29 @@
         <v>58</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G188" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="J188" s="3" t="s">
         <v>427</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,29 +7239,29 @@
         <v>58</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G189" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="J189" s="3" t="s">
         <v>429</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,59 +7269,59 @@
         <v>58</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G190" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J190" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K190" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G191" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J191" s="3" t="s">
         <v>433</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,29 +7329,29 @@
         <v>58</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G192" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="J192" s="3" t="s">
         <v>435</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,29 +7359,29 @@
         <v>58</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G193" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J193" s="3" t="s">
         <v>437</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,29 +7389,29 @@
         <v>58</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G194" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="J194" s="3" t="s">
         <v>439</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,29 +7419,29 @@
         <v>58</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G195" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J195" s="3" t="s">
         <v>441</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,23 +7449,23 @@
         <v>59</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G196" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,23 +7473,23 @@
         <v>60</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G197" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,23 +7497,23 @@
         <v>61</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G198" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,23 +7521,23 @@
         <v>62</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G199" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,23 +7545,23 @@
         <v>63</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G200" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,23 +7569,23 @@
         <v>64</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G201" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,23 +7593,23 @@
         <v>65</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G202" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,23 +7617,23 @@
         <v>66</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G203" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,23 +7641,23 @@
         <v>67</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G204" s="1" t="n">
         <v>2013</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,23 +7665,23 @@
         <v>68</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G205" s="1" t="n">
         <v>2005</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,22 +7689,22 @@
         <v>69</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G206" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,22 +7712,22 @@
         <v>70</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G207" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,22 +7735,22 @@
         <v>71</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G208" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,22 +7758,22 @@
         <v>72</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G209" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,22 +7781,22 @@
         <v>73</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G210" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7808,22 +7804,22 @@
         <v>74</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G211" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,22 +7827,22 @@
         <v>75</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G212" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7854,22 +7850,22 @@
         <v>76</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G213" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,22 +7873,22 @@
         <v>77</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G214" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7900,22 +7896,22 @@
         <v>78</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G215" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,22 +7919,22 @@
         <v>79</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G216" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,22 +7942,22 @@
         <v>80</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G217" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,22 +7965,22 @@
         <v>81</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G218" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,22 +7988,22 @@
         <v>82</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G219" s="1" t="n">
         <v>2017</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,22 +8011,22 @@
         <v>83</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G220" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,22 +8034,22 @@
         <v>84</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G221" s="1" t="n">
         <v>1995</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,22 +8057,22 @@
         <v>85</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G222" s="1" t="n">
         <v>2002</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,22 +8080,22 @@
         <v>86</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G223" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,22 +8103,22 @@
         <v>87</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G224" s="1" t="n">
         <v>2015</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,22 +8126,22 @@
         <v>89</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G225" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8153,22 +8149,22 @@
         <v>90</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G226" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8176,22 +8172,22 @@
         <v>91</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G227" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,22 +8195,22 @@
         <v>92</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G228" s="1" t="n">
         <v>1971</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,22 +8218,22 @@
         <v>93</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G229" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,22 +8241,22 @@
         <v>94</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G230" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,45 +8264,45 @@
         <v>95</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G231" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>555</v>
+      <c r="B232" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G232" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
